--- a/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/GIV/23.0.0/accreditamento-checklist.xlsx
+++ b/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/GIV/23.0.0/accreditamento-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuseppe.DELTADOMAIN\Desktop\FSE_2.0\PDF_TEST\CERT_VAC\Postman\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuseppe.DELTADOMAIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9184D9-7E33-4710-A5CE-B7931D5A53AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3965EA33-7952-41B5-8E0B-F5B2E4256D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$12</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -320,311 +320,10 @@
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>SING_VAC</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti"casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CERT_VAC_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_SING_VAC_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_SING_VAC_KO</t>
-  </si>
-  <si>
-    <t>Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
-"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "GESTIONE ERRORE".</t>
-  </si>
-  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CERT_VAC_TIMEOUT</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_SING_VAC_TIMEOUT</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT5_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT6_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT7_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT8_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT9_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT11_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT12_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT13_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT14_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT15_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT16_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT17_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT5_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT6_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT7_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT8_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT9_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT11_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT12_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT13_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT14_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT15_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT16_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT17_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT18_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT19_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>ID TEST CASE OK</t>
@@ -692,98 +391,6 @@
   <si>
     <t>subject_application_vendor:DELTA INFORMATICA</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Precondizioni:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Precondizioni:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
-    </r>
-  </si>
 </sst>
 </file>
 
@@ -792,7 +399,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,14 +461,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1181,28 +780,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1241,6 +818,28 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3700,18 +3299,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T670"/>
+  <dimension ref="A1:T565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="15" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" style="15" bestFit="1" customWidth="1"/>
@@ -3753,12 +3352,12 @@
       <c r="T1" s="21"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -3776,14 +3375,14 @@
       <c r="T2" s="21"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="23"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="38"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -3801,12 +3400,12 @@
       <c r="T3" s="21"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="23"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="38"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -3825,12 +3424,12 @@
       <c r="T4" s="21"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="23"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="38"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -3848,9 +3447,9 @@
       <c r="T5" s="21"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="22"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -3868,9 +3467,9 @@
       <c r="T6" s="21"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -3905,1598 +3504,897 @@
       <c r="T8" s="21"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="36" t="s">
+      <c r="O9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="36" t="s">
+      <c r="Q9" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="36" t="s">
+      <c r="S9" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="36" t="s">
+      <c r="T9" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A10" s="38">
+      <c r="A10" s="26">
         <v>16</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="29">
         <v>45260</v>
       </c>
-      <c r="G10" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="43" t="s">
+      <c r="G10" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="46" t="s">
+      <c r="I10" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A11" s="38">
+      <c r="A11" s="26">
         <v>17</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="29">
         <v>45260</v>
       </c>
-      <c r="G11" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="J11" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="46" t="s">
+      <c r="G11" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A12" s="38">
+      <c r="A12" s="26">
         <v>18</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="29">
         <v>45260</v>
       </c>
-      <c r="G12" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="46" t="s">
+      <c r="G12" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A13" s="38">
-        <v>19</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A14" s="38">
-        <v>20</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A15" s="38">
-        <v>21</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A16" s="38">
-        <v>22</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A17" s="38">
-        <v>23</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A18" s="38">
-        <v>33</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A19" s="38">
-        <v>34</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A20" s="38">
-        <v>41</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A21" s="38">
-        <v>42</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="38">
-        <v>49</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="S22" s="45"/>
-      <c r="T22" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="38">
-        <v>50</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="S23" s="45"/>
-      <c r="T23" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A24" s="38">
-        <v>94</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A25" s="38">
-        <v>95</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="84" x14ac:dyDescent="0.2">
-      <c r="A26" s="38">
-        <v>96</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A27" s="38">
-        <v>97</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A28" s="38">
-        <v>98</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A29" s="38">
-        <v>99</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="84" x14ac:dyDescent="0.2">
-      <c r="A30" s="38">
-        <v>100</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A31" s="38">
-        <v>101</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A32" s="38">
-        <v>102</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A33" s="38">
-        <v>103</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="84" x14ac:dyDescent="0.2">
-      <c r="A34" s="38">
-        <v>104</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A35" s="38">
-        <v>105</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A36" s="38">
-        <v>106</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A37" s="38">
-        <v>107</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A38" s="38">
-        <v>108</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A39" s="38">
-        <v>109</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="84" x14ac:dyDescent="0.2">
-      <c r="A40" s="38">
-        <v>110</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A41" s="38">
-        <v>111</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A42" s="38">
-        <v>112</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A43" s="38">
-        <v>113</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="41"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A44" s="38">
-        <v>114</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A45" s="38">
-        <v>115</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="41"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A46" s="38">
-        <v>116</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A47" s="38">
-        <v>117</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A48" s="38">
-        <v>118</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A49" s="38">
-        <v>119</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A50" s="38">
-        <v>120</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A51" s="38">
-        <v>121</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A52" s="38">
-        <v>371</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="108" x14ac:dyDescent="0.2">
-      <c r="A53" s="38">
-        <v>372</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="21"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="21"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="21"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="21"/>
+    </row>
+    <row r="17" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="21"/>
+    </row>
+    <row r="18" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="21"/>
+    </row>
+    <row r="20" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="21"/>
+    </row>
+    <row r="21" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="21"/>
+    </row>
+    <row r="22" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="21"/>
+    </row>
+    <row r="23" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="21"/>
+    </row>
+    <row r="24" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="21"/>
+    </row>
+    <row r="25" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="21"/>
+    </row>
+    <row r="26" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="21"/>
+    </row>
+    <row r="27" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="21"/>
+    </row>
+    <row r="28" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="21"/>
+    </row>
+    <row r="29" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="21"/>
+    </row>
+    <row r="30" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="21"/>
+    </row>
+    <row r="31" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="21"/>
+    </row>
+    <row r="32" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="21"/>
+    </row>
+    <row r="33" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="21"/>
+    </row>
+    <row r="34" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="21"/>
+    </row>
+    <row r="35" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="21"/>
+    </row>
+    <row r="36" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="21"/>
+    </row>
+    <row r="37" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="21"/>
+    </row>
+    <row r="38" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="21"/>
+    </row>
+    <row r="39" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="21"/>
+    </row>
+    <row r="40" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="21"/>
+    </row>
+    <row r="41" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="21"/>
+    </row>
+    <row r="42" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="21"/>
+    </row>
+    <row r="43" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="21"/>
+    </row>
+    <row r="44" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="21"/>
+    </row>
+    <row r="45" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="21"/>
+    </row>
+    <row r="46" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="21"/>
+    </row>
+    <row r="47" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="21"/>
+    </row>
+    <row r="48" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="21"/>
+    </row>
+    <row r="49" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="21"/>
+    </row>
+    <row r="50" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="21"/>
+    </row>
+    <row r="51" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="21"/>
+    </row>
+    <row r="52" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="21"/>
+    </row>
+    <row r="53" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="21"/>
+    </row>
+    <row r="54" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
@@ -5513,7 +4411,7 @@
       <c r="S54" s="20"/>
       <c r="T54" s="21"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
@@ -5530,7 +4428,7 @@
       <c r="S55" s="20"/>
       <c r="T55" s="21"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
@@ -5547,7 +4445,7 @@
       <c r="S56" s="20"/>
       <c r="T56" s="21"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
@@ -5564,7 +4462,7 @@
       <c r="S57" s="20"/>
       <c r="T57" s="21"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
@@ -5581,7 +4479,7 @@
       <c r="S58" s="20"/>
       <c r="T58" s="21"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
@@ -5598,7 +4496,7 @@
       <c r="S59" s="20"/>
       <c r="T59" s="21"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
@@ -5615,7 +4513,7 @@
       <c r="S60" s="20"/>
       <c r="T60" s="21"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
@@ -5632,7 +4530,7 @@
       <c r="S61" s="20"/>
       <c r="T61" s="21"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -5649,7 +4547,7 @@
       <c r="S62" s="20"/>
       <c r="T62" s="21"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
@@ -5666,7 +4564,7 @@
       <c r="S63" s="20"/>
       <c r="T63" s="21"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
@@ -7112,1797 +6010,327 @@
       <c r="T148" s="21"/>
     </row>
     <row r="149" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="18"/>
-      <c r="N149" s="18"/>
-      <c r="O149" s="18"/>
-      <c r="P149" s="18"/>
-      <c r="Q149" s="18"/>
-      <c r="R149" s="19"/>
-      <c r="S149" s="20"/>
-      <c r="T149" s="21"/>
+      <c r="T149" s="18"/>
     </row>
     <row r="150" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F150" s="17"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="17"/>
-      <c r="I150" s="17"/>
-      <c r="J150" s="18"/>
-      <c r="K150" s="18"/>
-      <c r="L150" s="18"/>
-      <c r="M150" s="18"/>
-      <c r="N150" s="18"/>
-      <c r="O150" s="18"/>
-      <c r="P150" s="18"/>
-      <c r="Q150" s="18"/>
-      <c r="R150" s="19"/>
-      <c r="S150" s="20"/>
-      <c r="T150" s="21"/>
+      <c r="T150" s="18"/>
     </row>
     <row r="151" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
-      <c r="I151" s="17"/>
-      <c r="J151" s="18"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
-      <c r="M151" s="18"/>
-      <c r="N151" s="18"/>
-      <c r="O151" s="18"/>
-      <c r="P151" s="18"/>
-      <c r="Q151" s="18"/>
-      <c r="R151" s="19"/>
-      <c r="S151" s="20"/>
-      <c r="T151" s="21"/>
+      <c r="T151" s="18"/>
     </row>
     <row r="152" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F152" s="17"/>
-      <c r="G152" s="17"/>
-      <c r="H152" s="17"/>
-      <c r="I152" s="17"/>
-      <c r="J152" s="18"/>
-      <c r="K152" s="18"/>
-      <c r="L152" s="18"/>
-      <c r="M152" s="18"/>
-      <c r="N152" s="18"/>
-      <c r="O152" s="18"/>
-      <c r="P152" s="18"/>
-      <c r="Q152" s="18"/>
-      <c r="R152" s="19"/>
-      <c r="S152" s="20"/>
-      <c r="T152" s="21"/>
+      <c r="T152" s="18"/>
     </row>
     <row r="153" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F153" s="17"/>
-      <c r="G153" s="17"/>
-      <c r="H153" s="17"/>
-      <c r="I153" s="17"/>
-      <c r="J153" s="18"/>
-      <c r="K153" s="18"/>
-      <c r="L153" s="18"/>
-      <c r="M153" s="18"/>
-      <c r="N153" s="18"/>
-      <c r="O153" s="18"/>
-      <c r="P153" s="18"/>
-      <c r="Q153" s="18"/>
-      <c r="R153" s="19"/>
-      <c r="S153" s="20"/>
-      <c r="T153" s="21"/>
+      <c r="T153" s="18"/>
     </row>
     <row r="154" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F154" s="17"/>
-      <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
-      <c r="I154" s="17"/>
-      <c r="J154" s="18"/>
-      <c r="K154" s="18"/>
-      <c r="L154" s="18"/>
-      <c r="M154" s="18"/>
-      <c r="N154" s="18"/>
-      <c r="O154" s="18"/>
-      <c r="P154" s="18"/>
-      <c r="Q154" s="18"/>
-      <c r="R154" s="19"/>
-      <c r="S154" s="20"/>
-      <c r="T154" s="21"/>
+      <c r="T154" s="18"/>
     </row>
     <row r="155" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F155" s="17"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="17"/>
-      <c r="I155" s="17"/>
-      <c r="J155" s="18"/>
-      <c r="K155" s="18"/>
-      <c r="L155" s="18"/>
-      <c r="M155" s="18"/>
-      <c r="N155" s="18"/>
-      <c r="O155" s="18"/>
-      <c r="P155" s="18"/>
-      <c r="Q155" s="18"/>
-      <c r="R155" s="19"/>
-      <c r="S155" s="20"/>
-      <c r="T155" s="21"/>
+      <c r="T155" s="18"/>
     </row>
     <row r="156" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F156" s="17"/>
-      <c r="G156" s="17"/>
-      <c r="H156" s="17"/>
-      <c r="I156" s="17"/>
-      <c r="J156" s="18"/>
-      <c r="K156" s="18"/>
-      <c r="L156" s="18"/>
-      <c r="M156" s="18"/>
-      <c r="N156" s="18"/>
-      <c r="O156" s="18"/>
-      <c r="P156" s="18"/>
-      <c r="Q156" s="18"/>
-      <c r="R156" s="19"/>
-      <c r="S156" s="20"/>
-      <c r="T156" s="21"/>
+      <c r="T156" s="18"/>
     </row>
     <row r="157" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F157" s="17"/>
-      <c r="G157" s="17"/>
-      <c r="H157" s="17"/>
-      <c r="I157" s="17"/>
-      <c r="J157" s="18"/>
-      <c r="K157" s="18"/>
-      <c r="L157" s="18"/>
-      <c r="M157" s="18"/>
-      <c r="N157" s="18"/>
-      <c r="O157" s="18"/>
-      <c r="P157" s="18"/>
-      <c r="Q157" s="18"/>
-      <c r="R157" s="19"/>
-      <c r="S157" s="20"/>
-      <c r="T157" s="21"/>
+      <c r="T157" s="18"/>
     </row>
     <row r="158" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F158" s="17"/>
-      <c r="G158" s="17"/>
-      <c r="H158" s="17"/>
-      <c r="I158" s="17"/>
-      <c r="J158" s="18"/>
-      <c r="K158" s="18"/>
-      <c r="L158" s="18"/>
-      <c r="M158" s="18"/>
-      <c r="N158" s="18"/>
-      <c r="O158" s="18"/>
-      <c r="P158" s="18"/>
-      <c r="Q158" s="18"/>
-      <c r="R158" s="19"/>
-      <c r="S158" s="20"/>
-      <c r="T158" s="21"/>
+      <c r="T158" s="18"/>
     </row>
     <row r="159" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F159" s="17"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
-      <c r="I159" s="17"/>
-      <c r="J159" s="18"/>
-      <c r="K159" s="18"/>
-      <c r="L159" s="18"/>
-      <c r="M159" s="18"/>
-      <c r="N159" s="18"/>
-      <c r="O159" s="18"/>
-      <c r="P159" s="18"/>
-      <c r="Q159" s="18"/>
-      <c r="R159" s="19"/>
-      <c r="S159" s="20"/>
-      <c r="T159" s="21"/>
+      <c r="T159" s="18"/>
     </row>
     <row r="160" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-      <c r="I160" s="17"/>
-      <c r="J160" s="18"/>
-      <c r="K160" s="18"/>
-      <c r="L160" s="18"/>
-      <c r="M160" s="18"/>
-      <c r="N160" s="18"/>
-      <c r="O160" s="18"/>
-      <c r="P160" s="18"/>
-      <c r="Q160" s="18"/>
-      <c r="R160" s="19"/>
-      <c r="S160" s="20"/>
-      <c r="T160" s="21"/>
-    </row>
-    <row r="161" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F161" s="17"/>
-      <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
-      <c r="I161" s="17"/>
-      <c r="J161" s="18"/>
-      <c r="K161" s="18"/>
-      <c r="L161" s="18"/>
-      <c r="M161" s="18"/>
-      <c r="N161" s="18"/>
-      <c r="O161" s="18"/>
-      <c r="P161" s="18"/>
-      <c r="Q161" s="18"/>
-      <c r="R161" s="19"/>
-      <c r="S161" s="20"/>
-      <c r="T161" s="21"/>
-    </row>
-    <row r="162" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F162" s="17"/>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-      <c r="I162" s="17"/>
-      <c r="J162" s="18"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="18"/>
-      <c r="M162" s="18"/>
-      <c r="N162" s="18"/>
-      <c r="O162" s="18"/>
-      <c r="P162" s="18"/>
-      <c r="Q162" s="18"/>
-      <c r="R162" s="19"/>
-      <c r="S162" s="20"/>
-      <c r="T162" s="21"/>
-    </row>
-    <row r="163" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="17"/>
-      <c r="J163" s="18"/>
-      <c r="K163" s="18"/>
-      <c r="L163" s="18"/>
-      <c r="M163" s="18"/>
-      <c r="N163" s="18"/>
-      <c r="O163" s="18"/>
-      <c r="P163" s="18"/>
-      <c r="Q163" s="18"/>
-      <c r="R163" s="19"/>
-      <c r="S163" s="20"/>
-      <c r="T163" s="21"/>
-    </row>
-    <row r="164" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="17"/>
-      <c r="J164" s="18"/>
-      <c r="K164" s="18"/>
-      <c r="L164" s="18"/>
-      <c r="M164" s="18"/>
-      <c r="N164" s="18"/>
-      <c r="O164" s="18"/>
-      <c r="P164" s="18"/>
-      <c r="Q164" s="18"/>
-      <c r="R164" s="19"/>
-      <c r="S164" s="20"/>
-      <c r="T164" s="21"/>
-    </row>
-    <row r="165" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F165" s="17"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="18"/>
-      <c r="K165" s="18"/>
-      <c r="L165" s="18"/>
-      <c r="M165" s="18"/>
-      <c r="N165" s="18"/>
-      <c r="O165" s="18"/>
-      <c r="P165" s="18"/>
-      <c r="Q165" s="18"/>
-      <c r="R165" s="19"/>
-      <c r="S165" s="20"/>
-      <c r="T165" s="21"/>
-    </row>
-    <row r="166" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F166" s="17"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="17"/>
-      <c r="I166" s="17"/>
-      <c r="J166" s="18"/>
-      <c r="K166" s="18"/>
-      <c r="L166" s="18"/>
-      <c r="M166" s="18"/>
-      <c r="N166" s="18"/>
-      <c r="O166" s="18"/>
-      <c r="P166" s="18"/>
-      <c r="Q166" s="18"/>
-      <c r="R166" s="19"/>
-      <c r="S166" s="20"/>
-      <c r="T166" s="21"/>
-    </row>
-    <row r="167" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F167" s="17"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
-      <c r="I167" s="17"/>
-      <c r="J167" s="18"/>
-      <c r="K167" s="18"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="18"/>
-      <c r="N167" s="18"/>
-      <c r="O167" s="18"/>
-      <c r="P167" s="18"/>
-      <c r="Q167" s="18"/>
-      <c r="R167" s="19"/>
-      <c r="S167" s="20"/>
-      <c r="T167" s="21"/>
-    </row>
-    <row r="168" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F168" s="17"/>
-      <c r="G168" s="17"/>
-      <c r="H168" s="17"/>
-      <c r="I168" s="17"/>
-      <c r="J168" s="18"/>
-      <c r="K168" s="18"/>
-      <c r="L168" s="18"/>
-      <c r="M168" s="18"/>
-      <c r="N168" s="18"/>
-      <c r="O168" s="18"/>
-      <c r="P168" s="18"/>
-      <c r="Q168" s="18"/>
-      <c r="R168" s="19"/>
-      <c r="S168" s="20"/>
-      <c r="T168" s="21"/>
-    </row>
-    <row r="169" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F169" s="17"/>
-      <c r="G169" s="17"/>
-      <c r="H169" s="17"/>
-      <c r="I169" s="17"/>
-      <c r="J169" s="18"/>
-      <c r="K169" s="18"/>
-      <c r="L169" s="18"/>
-      <c r="M169" s="18"/>
-      <c r="N169" s="18"/>
-      <c r="O169" s="18"/>
-      <c r="P169" s="18"/>
-      <c r="Q169" s="18"/>
-      <c r="R169" s="19"/>
-      <c r="S169" s="20"/>
-      <c r="T169" s="21"/>
-    </row>
-    <row r="170" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F170" s="17"/>
-      <c r="G170" s="17"/>
-      <c r="H170" s="17"/>
-      <c r="I170" s="17"/>
-      <c r="J170" s="18"/>
-      <c r="K170" s="18"/>
-      <c r="L170" s="18"/>
-      <c r="M170" s="18"/>
-      <c r="N170" s="18"/>
-      <c r="O170" s="18"/>
-      <c r="P170" s="18"/>
-      <c r="Q170" s="18"/>
-      <c r="R170" s="19"/>
-      <c r="S170" s="20"/>
-      <c r="T170" s="21"/>
-    </row>
-    <row r="171" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F171" s="17"/>
-      <c r="G171" s="17"/>
-      <c r="H171" s="17"/>
-      <c r="I171" s="17"/>
-      <c r="J171" s="18"/>
-      <c r="K171" s="18"/>
-      <c r="L171" s="18"/>
-      <c r="M171" s="18"/>
-      <c r="N171" s="18"/>
-      <c r="O171" s="18"/>
-      <c r="P171" s="18"/>
-      <c r="Q171" s="18"/>
-      <c r="R171" s="19"/>
-      <c r="S171" s="20"/>
-      <c r="T171" s="21"/>
-    </row>
-    <row r="172" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F172" s="17"/>
-      <c r="G172" s="17"/>
-      <c r="H172" s="17"/>
-      <c r="I172" s="17"/>
-      <c r="J172" s="18"/>
-      <c r="K172" s="18"/>
-      <c r="L172" s="18"/>
-      <c r="M172" s="18"/>
-      <c r="N172" s="18"/>
-      <c r="O172" s="18"/>
-      <c r="P172" s="18"/>
-      <c r="Q172" s="18"/>
-      <c r="R172" s="19"/>
-      <c r="S172" s="20"/>
-      <c r="T172" s="21"/>
-    </row>
-    <row r="173" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F173" s="17"/>
-      <c r="G173" s="17"/>
-      <c r="H173" s="17"/>
-      <c r="I173" s="17"/>
-      <c r="J173" s="18"/>
-      <c r="K173" s="18"/>
-      <c r="L173" s="18"/>
-      <c r="M173" s="18"/>
-      <c r="N173" s="18"/>
-      <c r="O173" s="18"/>
-      <c r="P173" s="18"/>
-      <c r="Q173" s="18"/>
-      <c r="R173" s="19"/>
-      <c r="S173" s="20"/>
-      <c r="T173" s="21"/>
-    </row>
-    <row r="174" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F174" s="17"/>
-      <c r="G174" s="17"/>
-      <c r="H174" s="17"/>
-      <c r="I174" s="17"/>
-      <c r="J174" s="18"/>
-      <c r="K174" s="18"/>
-      <c r="L174" s="18"/>
-      <c r="M174" s="18"/>
-      <c r="N174" s="18"/>
-      <c r="O174" s="18"/>
-      <c r="P174" s="18"/>
-      <c r="Q174" s="18"/>
-      <c r="R174" s="19"/>
-      <c r="S174" s="20"/>
-      <c r="T174" s="21"/>
-    </row>
-    <row r="175" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F175" s="17"/>
-      <c r="G175" s="17"/>
-      <c r="H175" s="17"/>
-      <c r="I175" s="17"/>
-      <c r="J175" s="18"/>
-      <c r="K175" s="18"/>
-      <c r="L175" s="18"/>
-      <c r="M175" s="18"/>
-      <c r="N175" s="18"/>
-      <c r="O175" s="18"/>
-      <c r="P175" s="18"/>
-      <c r="Q175" s="18"/>
-      <c r="R175" s="19"/>
-      <c r="S175" s="20"/>
-      <c r="T175" s="21"/>
-    </row>
-    <row r="176" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F176" s="17"/>
-      <c r="G176" s="17"/>
-      <c r="H176" s="17"/>
-      <c r="I176" s="17"/>
-      <c r="J176" s="18"/>
-      <c r="K176" s="18"/>
-      <c r="L176" s="18"/>
-      <c r="M176" s="18"/>
-      <c r="N176" s="18"/>
-      <c r="O176" s="18"/>
-      <c r="P176" s="18"/>
-      <c r="Q176" s="18"/>
-      <c r="R176" s="19"/>
-      <c r="S176" s="20"/>
-      <c r="T176" s="21"/>
-    </row>
-    <row r="177" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F177" s="17"/>
-      <c r="G177" s="17"/>
-      <c r="H177" s="17"/>
-      <c r="I177" s="17"/>
-      <c r="J177" s="18"/>
-      <c r="K177" s="18"/>
-      <c r="L177" s="18"/>
-      <c r="M177" s="18"/>
-      <c r="N177" s="18"/>
-      <c r="O177" s="18"/>
-      <c r="P177" s="18"/>
-      <c r="Q177" s="18"/>
-      <c r="R177" s="19"/>
-      <c r="S177" s="20"/>
-      <c r="T177" s="21"/>
-    </row>
-    <row r="178" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="17"/>
-      <c r="I178" s="17"/>
-      <c r="J178" s="18"/>
-      <c r="K178" s="18"/>
-      <c r="L178" s="18"/>
-      <c r="M178" s="18"/>
-      <c r="N178" s="18"/>
-      <c r="O178" s="18"/>
-      <c r="P178" s="18"/>
-      <c r="Q178" s="18"/>
-      <c r="R178" s="19"/>
-      <c r="S178" s="20"/>
-      <c r="T178" s="21"/>
-    </row>
-    <row r="179" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F179" s="17"/>
-      <c r="G179" s="17"/>
-      <c r="H179" s="17"/>
-      <c r="I179" s="17"/>
-      <c r="J179" s="18"/>
-      <c r="K179" s="18"/>
-      <c r="L179" s="18"/>
-      <c r="M179" s="18"/>
-      <c r="N179" s="18"/>
-      <c r="O179" s="18"/>
-      <c r="P179" s="18"/>
-      <c r="Q179" s="18"/>
-      <c r="R179" s="19"/>
-      <c r="S179" s="20"/>
-      <c r="T179" s="21"/>
-    </row>
-    <row r="180" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F180" s="17"/>
-      <c r="G180" s="17"/>
-      <c r="H180" s="17"/>
-      <c r="I180" s="17"/>
-      <c r="J180" s="18"/>
-      <c r="K180" s="18"/>
-      <c r="L180" s="18"/>
-      <c r="M180" s="18"/>
-      <c r="N180" s="18"/>
-      <c r="O180" s="18"/>
-      <c r="P180" s="18"/>
-      <c r="Q180" s="18"/>
-      <c r="R180" s="19"/>
-      <c r="S180" s="20"/>
-      <c r="T180" s="21"/>
-    </row>
-    <row r="181" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F181" s="17"/>
-      <c r="G181" s="17"/>
-      <c r="H181" s="17"/>
-      <c r="I181" s="17"/>
-      <c r="J181" s="18"/>
-      <c r="K181" s="18"/>
-      <c r="L181" s="18"/>
-      <c r="M181" s="18"/>
-      <c r="N181" s="18"/>
-      <c r="O181" s="18"/>
-      <c r="P181" s="18"/>
-      <c r="Q181" s="18"/>
-      <c r="R181" s="19"/>
-      <c r="S181" s="20"/>
-      <c r="T181" s="21"/>
-    </row>
-    <row r="182" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F182" s="17"/>
-      <c r="G182" s="17"/>
-      <c r="H182" s="17"/>
-      <c r="I182" s="17"/>
-      <c r="J182" s="18"/>
-      <c r="K182" s="18"/>
-      <c r="L182" s="18"/>
-      <c r="M182" s="18"/>
-      <c r="N182" s="18"/>
-      <c r="O182" s="18"/>
-      <c r="P182" s="18"/>
-      <c r="Q182" s="18"/>
-      <c r="R182" s="19"/>
-      <c r="S182" s="20"/>
-      <c r="T182" s="21"/>
-    </row>
-    <row r="183" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F183" s="17"/>
-      <c r="G183" s="17"/>
-      <c r="H183" s="17"/>
-      <c r="I183" s="17"/>
-      <c r="J183" s="18"/>
-      <c r="K183" s="18"/>
-      <c r="L183" s="18"/>
-      <c r="M183" s="18"/>
-      <c r="N183" s="18"/>
-      <c r="O183" s="18"/>
-      <c r="P183" s="18"/>
-      <c r="Q183" s="18"/>
-      <c r="R183" s="19"/>
-      <c r="S183" s="20"/>
-      <c r="T183" s="21"/>
-    </row>
-    <row r="184" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F184" s="17"/>
-      <c r="G184" s="17"/>
-      <c r="H184" s="17"/>
-      <c r="I184" s="17"/>
-      <c r="J184" s="18"/>
-      <c r="K184" s="18"/>
-      <c r="L184" s="18"/>
-      <c r="M184" s="18"/>
-      <c r="N184" s="18"/>
-      <c r="O184" s="18"/>
-      <c r="P184" s="18"/>
-      <c r="Q184" s="18"/>
-      <c r="R184" s="19"/>
-      <c r="S184" s="20"/>
-      <c r="T184" s="21"/>
-    </row>
-    <row r="185" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F185" s="17"/>
-      <c r="G185" s="17"/>
-      <c r="H185" s="17"/>
-      <c r="I185" s="17"/>
-      <c r="J185" s="18"/>
-      <c r="K185" s="18"/>
-      <c r="L185" s="18"/>
-      <c r="M185" s="18"/>
-      <c r="N185" s="18"/>
-      <c r="O185" s="18"/>
-      <c r="P185" s="18"/>
-      <c r="Q185" s="18"/>
-      <c r="R185" s="19"/>
-      <c r="S185" s="20"/>
-      <c r="T185" s="21"/>
-    </row>
-    <row r="186" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F186" s="17"/>
-      <c r="G186" s="17"/>
-      <c r="H186" s="17"/>
-      <c r="I186" s="17"/>
-      <c r="J186" s="18"/>
-      <c r="K186" s="18"/>
-      <c r="L186" s="18"/>
-      <c r="M186" s="18"/>
-      <c r="N186" s="18"/>
-      <c r="O186" s="18"/>
-      <c r="P186" s="18"/>
-      <c r="Q186" s="18"/>
-      <c r="R186" s="19"/>
-      <c r="S186" s="20"/>
-      <c r="T186" s="21"/>
-    </row>
-    <row r="187" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F187" s="17"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="17"/>
-      <c r="I187" s="17"/>
-      <c r="J187" s="18"/>
-      <c r="K187" s="18"/>
-      <c r="L187" s="18"/>
-      <c r="M187" s="18"/>
-      <c r="N187" s="18"/>
-      <c r="O187" s="18"/>
-      <c r="P187" s="18"/>
-      <c r="Q187" s="18"/>
-      <c r="R187" s="19"/>
-      <c r="S187" s="20"/>
-      <c r="T187" s="21"/>
-    </row>
-    <row r="188" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F188" s="17"/>
-      <c r="G188" s="17"/>
-      <c r="H188" s="17"/>
-      <c r="I188" s="17"/>
-      <c r="J188" s="18"/>
-      <c r="K188" s="18"/>
-      <c r="L188" s="18"/>
-      <c r="M188" s="18"/>
-      <c r="N188" s="18"/>
-      <c r="O188" s="18"/>
-      <c r="P188" s="18"/>
-      <c r="Q188" s="18"/>
-      <c r="R188" s="19"/>
-      <c r="S188" s="20"/>
-      <c r="T188" s="21"/>
-    </row>
-    <row r="189" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F189" s="17"/>
-      <c r="G189" s="17"/>
-      <c r="H189" s="17"/>
-      <c r="I189" s="17"/>
-      <c r="J189" s="18"/>
-      <c r="K189" s="18"/>
-      <c r="L189" s="18"/>
-      <c r="M189" s="18"/>
-      <c r="N189" s="18"/>
-      <c r="O189" s="18"/>
-      <c r="P189" s="18"/>
-      <c r="Q189" s="18"/>
-      <c r="R189" s="19"/>
-      <c r="S189" s="20"/>
-      <c r="T189" s="21"/>
-    </row>
-    <row r="190" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F190" s="17"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="17"/>
-      <c r="I190" s="17"/>
-      <c r="J190" s="18"/>
-      <c r="K190" s="18"/>
-      <c r="L190" s="18"/>
-      <c r="M190" s="18"/>
-      <c r="N190" s="18"/>
-      <c r="O190" s="18"/>
-      <c r="P190" s="18"/>
-      <c r="Q190" s="18"/>
-      <c r="R190" s="19"/>
-      <c r="S190" s="20"/>
-      <c r="T190" s="21"/>
-    </row>
-    <row r="191" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F191" s="17"/>
-      <c r="G191" s="17"/>
-      <c r="H191" s="17"/>
-      <c r="I191" s="17"/>
-      <c r="J191" s="18"/>
-      <c r="K191" s="18"/>
-      <c r="L191" s="18"/>
-      <c r="M191" s="18"/>
-      <c r="N191" s="18"/>
-      <c r="O191" s="18"/>
-      <c r="P191" s="18"/>
-      <c r="Q191" s="18"/>
-      <c r="R191" s="19"/>
-      <c r="S191" s="20"/>
-      <c r="T191" s="21"/>
-    </row>
-    <row r="192" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F192" s="17"/>
-      <c r="G192" s="17"/>
-      <c r="H192" s="17"/>
-      <c r="I192" s="17"/>
-      <c r="J192" s="18"/>
-      <c r="K192" s="18"/>
-      <c r="L192" s="18"/>
-      <c r="M192" s="18"/>
-      <c r="N192" s="18"/>
-      <c r="O192" s="18"/>
-      <c r="P192" s="18"/>
-      <c r="Q192" s="18"/>
-      <c r="R192" s="19"/>
-      <c r="S192" s="20"/>
-      <c r="T192" s="21"/>
-    </row>
-    <row r="193" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F193" s="17"/>
-      <c r="G193" s="17"/>
-      <c r="H193" s="17"/>
-      <c r="I193" s="17"/>
-      <c r="J193" s="18"/>
-      <c r="K193" s="18"/>
-      <c r="L193" s="18"/>
-      <c r="M193" s="18"/>
-      <c r="N193" s="18"/>
-      <c r="O193" s="18"/>
-      <c r="P193" s="18"/>
-      <c r="Q193" s="18"/>
-      <c r="R193" s="19"/>
-      <c r="S193" s="20"/>
-      <c r="T193" s="21"/>
-    </row>
-    <row r="194" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F194" s="17"/>
-      <c r="G194" s="17"/>
-      <c r="H194" s="17"/>
-      <c r="I194" s="17"/>
-      <c r="J194" s="18"/>
-      <c r="K194" s="18"/>
-      <c r="L194" s="18"/>
-      <c r="M194" s="18"/>
-      <c r="N194" s="18"/>
-      <c r="O194" s="18"/>
-      <c r="P194" s="18"/>
-      <c r="Q194" s="18"/>
-      <c r="R194" s="19"/>
-      <c r="S194" s="20"/>
-      <c r="T194" s="21"/>
-    </row>
-    <row r="195" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F195" s="17"/>
-      <c r="G195" s="17"/>
-      <c r="H195" s="17"/>
-      <c r="I195" s="17"/>
-      <c r="J195" s="18"/>
-      <c r="K195" s="18"/>
-      <c r="L195" s="18"/>
-      <c r="M195" s="18"/>
-      <c r="N195" s="18"/>
-      <c r="O195" s="18"/>
-      <c r="P195" s="18"/>
-      <c r="Q195" s="18"/>
-      <c r="R195" s="19"/>
-      <c r="S195" s="20"/>
-      <c r="T195" s="21"/>
-    </row>
-    <row r="196" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F196" s="17"/>
-      <c r="G196" s="17"/>
-      <c r="H196" s="17"/>
-      <c r="I196" s="17"/>
-      <c r="J196" s="18"/>
-      <c r="K196" s="18"/>
-      <c r="L196" s="18"/>
-      <c r="M196" s="18"/>
-      <c r="N196" s="18"/>
-      <c r="O196" s="18"/>
-      <c r="P196" s="18"/>
-      <c r="Q196" s="18"/>
-      <c r="R196" s="19"/>
-      <c r="S196" s="20"/>
-      <c r="T196" s="21"/>
-    </row>
-    <row r="197" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F197" s="17"/>
-      <c r="G197" s="17"/>
-      <c r="H197" s="17"/>
-      <c r="I197" s="17"/>
-      <c r="J197" s="18"/>
-      <c r="K197" s="18"/>
-      <c r="L197" s="18"/>
-      <c r="M197" s="18"/>
-      <c r="N197" s="18"/>
-      <c r="O197" s="18"/>
-      <c r="P197" s="18"/>
-      <c r="Q197" s="18"/>
-      <c r="R197" s="19"/>
-      <c r="S197" s="20"/>
-      <c r="T197" s="21"/>
-    </row>
-    <row r="198" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F198" s="17"/>
-      <c r="G198" s="17"/>
-      <c r="H198" s="17"/>
-      <c r="I198" s="17"/>
-      <c r="J198" s="18"/>
-      <c r="K198" s="18"/>
-      <c r="L198" s="18"/>
-      <c r="M198" s="18"/>
-      <c r="N198" s="18"/>
-      <c r="O198" s="18"/>
-      <c r="P198" s="18"/>
-      <c r="Q198" s="18"/>
-      <c r="R198" s="19"/>
-      <c r="S198" s="20"/>
-      <c r="T198" s="21"/>
-    </row>
-    <row r="199" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F199" s="17"/>
-      <c r="G199" s="17"/>
-      <c r="H199" s="17"/>
-      <c r="I199" s="17"/>
-      <c r="J199" s="18"/>
-      <c r="K199" s="18"/>
-      <c r="L199" s="18"/>
-      <c r="M199" s="18"/>
-      <c r="N199" s="18"/>
-      <c r="O199" s="18"/>
-      <c r="P199" s="18"/>
-      <c r="Q199" s="18"/>
-      <c r="R199" s="19"/>
-      <c r="S199" s="20"/>
-      <c r="T199" s="21"/>
-    </row>
-    <row r="200" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F200" s="17"/>
-      <c r="G200" s="17"/>
-      <c r="H200" s="17"/>
-      <c r="I200" s="17"/>
-      <c r="J200" s="18"/>
-      <c r="K200" s="18"/>
-      <c r="L200" s="18"/>
-      <c r="M200" s="18"/>
-      <c r="N200" s="18"/>
-      <c r="O200" s="18"/>
-      <c r="P200" s="18"/>
-      <c r="Q200" s="18"/>
-      <c r="R200" s="19"/>
-      <c r="S200" s="20"/>
-      <c r="T200" s="21"/>
-    </row>
-    <row r="201" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F201" s="17"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="17"/>
-      <c r="I201" s="17"/>
-      <c r="J201" s="18"/>
-      <c r="K201" s="18"/>
-      <c r="L201" s="18"/>
-      <c r="M201" s="18"/>
-      <c r="N201" s="18"/>
-      <c r="O201" s="18"/>
-      <c r="P201" s="18"/>
-      <c r="Q201" s="18"/>
-      <c r="R201" s="19"/>
-      <c r="S201" s="20"/>
-      <c r="T201" s="21"/>
-    </row>
-    <row r="202" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F202" s="17"/>
-      <c r="G202" s="17"/>
-      <c r="H202" s="17"/>
-      <c r="I202" s="17"/>
-      <c r="J202" s="18"/>
-      <c r="K202" s="18"/>
-      <c r="L202" s="18"/>
-      <c r="M202" s="18"/>
-      <c r="N202" s="18"/>
-      <c r="O202" s="18"/>
-      <c r="P202" s="18"/>
-      <c r="Q202" s="18"/>
-      <c r="R202" s="19"/>
-      <c r="S202" s="20"/>
-      <c r="T202" s="21"/>
-    </row>
-    <row r="203" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F203" s="17"/>
-      <c r="G203" s="17"/>
-      <c r="H203" s="17"/>
-      <c r="I203" s="17"/>
-      <c r="J203" s="18"/>
-      <c r="K203" s="18"/>
-      <c r="L203" s="18"/>
-      <c r="M203" s="18"/>
-      <c r="N203" s="18"/>
-      <c r="O203" s="18"/>
-      <c r="P203" s="18"/>
-      <c r="Q203" s="18"/>
-      <c r="R203" s="19"/>
-      <c r="S203" s="20"/>
-      <c r="T203" s="21"/>
-    </row>
-    <row r="204" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F204" s="17"/>
-      <c r="G204" s="17"/>
-      <c r="H204" s="17"/>
-      <c r="I204" s="17"/>
-      <c r="J204" s="18"/>
-      <c r="K204" s="18"/>
-      <c r="L204" s="18"/>
-      <c r="M204" s="18"/>
-      <c r="N204" s="18"/>
-      <c r="O204" s="18"/>
-      <c r="P204" s="18"/>
-      <c r="Q204" s="18"/>
-      <c r="R204" s="19"/>
-      <c r="S204" s="20"/>
-      <c r="T204" s="21"/>
-    </row>
-    <row r="205" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F205" s="17"/>
-      <c r="G205" s="17"/>
-      <c r="H205" s="17"/>
-      <c r="I205" s="17"/>
-      <c r="J205" s="18"/>
-      <c r="K205" s="18"/>
-      <c r="L205" s="18"/>
-      <c r="M205" s="18"/>
-      <c r="N205" s="18"/>
-      <c r="O205" s="18"/>
-      <c r="P205" s="18"/>
-      <c r="Q205" s="18"/>
-      <c r="R205" s="19"/>
-      <c r="S205" s="20"/>
-      <c r="T205" s="21"/>
-    </row>
-    <row r="206" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F206" s="17"/>
-      <c r="G206" s="17"/>
-      <c r="H206" s="17"/>
-      <c r="I206" s="17"/>
-      <c r="J206" s="18"/>
-      <c r="K206" s="18"/>
-      <c r="L206" s="18"/>
-      <c r="M206" s="18"/>
-      <c r="N206" s="18"/>
-      <c r="O206" s="18"/>
-      <c r="P206" s="18"/>
-      <c r="Q206" s="18"/>
-      <c r="R206" s="19"/>
-      <c r="S206" s="20"/>
-      <c r="T206" s="21"/>
-    </row>
-    <row r="207" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F207" s="17"/>
-      <c r="G207" s="17"/>
-      <c r="H207" s="17"/>
-      <c r="I207" s="17"/>
-      <c r="J207" s="18"/>
-      <c r="K207" s="18"/>
-      <c r="L207" s="18"/>
-      <c r="M207" s="18"/>
-      <c r="N207" s="18"/>
-      <c r="O207" s="18"/>
-      <c r="P207" s="18"/>
-      <c r="Q207" s="18"/>
-      <c r="R207" s="19"/>
-      <c r="S207" s="20"/>
-      <c r="T207" s="21"/>
-    </row>
-    <row r="208" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F208" s="17"/>
-      <c r="G208" s="17"/>
-      <c r="H208" s="17"/>
-      <c r="I208" s="17"/>
-      <c r="J208" s="18"/>
-      <c r="K208" s="18"/>
-      <c r="L208" s="18"/>
-      <c r="M208" s="18"/>
-      <c r="N208" s="18"/>
-      <c r="O208" s="18"/>
-      <c r="P208" s="18"/>
-      <c r="Q208" s="18"/>
-      <c r="R208" s="19"/>
-      <c r="S208" s="20"/>
-      <c r="T208" s="21"/>
-    </row>
-    <row r="209" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F209" s="17"/>
-      <c r="G209" s="17"/>
-      <c r="H209" s="17"/>
-      <c r="I209" s="17"/>
-      <c r="J209" s="18"/>
-      <c r="K209" s="18"/>
-      <c r="L209" s="18"/>
-      <c r="M209" s="18"/>
-      <c r="N209" s="18"/>
-      <c r="O209" s="18"/>
-      <c r="P209" s="18"/>
-      <c r="Q209" s="18"/>
-      <c r="R209" s="19"/>
-      <c r="S209" s="20"/>
-      <c r="T209" s="21"/>
-    </row>
-    <row r="210" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F210" s="17"/>
-      <c r="G210" s="17"/>
-      <c r="H210" s="17"/>
-      <c r="I210" s="17"/>
-      <c r="J210" s="18"/>
-      <c r="K210" s="18"/>
-      <c r="L210" s="18"/>
-      <c r="M210" s="18"/>
-      <c r="N210" s="18"/>
-      <c r="O210" s="18"/>
-      <c r="P210" s="18"/>
-      <c r="Q210" s="18"/>
-      <c r="R210" s="19"/>
-      <c r="S210" s="20"/>
-      <c r="T210" s="21"/>
-    </row>
-    <row r="211" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F211" s="17"/>
-      <c r="G211" s="17"/>
-      <c r="H211" s="17"/>
-      <c r="I211" s="17"/>
-      <c r="J211" s="18"/>
-      <c r="K211" s="18"/>
-      <c r="L211" s="18"/>
-      <c r="M211" s="18"/>
-      <c r="N211" s="18"/>
-      <c r="O211" s="18"/>
-      <c r="P211" s="18"/>
-      <c r="Q211" s="18"/>
-      <c r="R211" s="19"/>
-      <c r="S211" s="20"/>
-      <c r="T211" s="21"/>
-    </row>
-    <row r="212" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F212" s="17"/>
-      <c r="G212" s="17"/>
-      <c r="H212" s="17"/>
-      <c r="I212" s="17"/>
-      <c r="J212" s="18"/>
-      <c r="K212" s="18"/>
-      <c r="L212" s="18"/>
-      <c r="M212" s="18"/>
-      <c r="N212" s="18"/>
-      <c r="O212" s="18"/>
-      <c r="P212" s="18"/>
-      <c r="Q212" s="18"/>
-      <c r="R212" s="19"/>
-      <c r="S212" s="20"/>
-      <c r="T212" s="21"/>
-    </row>
-    <row r="213" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F213" s="17"/>
-      <c r="G213" s="17"/>
-      <c r="H213" s="17"/>
-      <c r="I213" s="17"/>
-      <c r="J213" s="18"/>
-      <c r="K213" s="18"/>
-      <c r="L213" s="18"/>
-      <c r="M213" s="18"/>
-      <c r="N213" s="18"/>
-      <c r="O213" s="18"/>
-      <c r="P213" s="18"/>
-      <c r="Q213" s="18"/>
-      <c r="R213" s="19"/>
-      <c r="S213" s="20"/>
-      <c r="T213" s="21"/>
-    </row>
-    <row r="214" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F214" s="17"/>
-      <c r="G214" s="17"/>
-      <c r="H214" s="17"/>
-      <c r="I214" s="17"/>
-      <c r="J214" s="18"/>
-      <c r="K214" s="18"/>
-      <c r="L214" s="18"/>
-      <c r="M214" s="18"/>
-      <c r="N214" s="18"/>
-      <c r="O214" s="18"/>
-      <c r="P214" s="18"/>
-      <c r="Q214" s="18"/>
-      <c r="R214" s="19"/>
-      <c r="S214" s="20"/>
-      <c r="T214" s="21"/>
-    </row>
-    <row r="215" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F215" s="17"/>
-      <c r="G215" s="17"/>
-      <c r="H215" s="17"/>
-      <c r="I215" s="17"/>
-      <c r="J215" s="18"/>
-      <c r="K215" s="18"/>
-      <c r="L215" s="18"/>
-      <c r="M215" s="18"/>
-      <c r="N215" s="18"/>
-      <c r="O215" s="18"/>
-      <c r="P215" s="18"/>
-      <c r="Q215" s="18"/>
-      <c r="R215" s="19"/>
-      <c r="S215" s="20"/>
-      <c r="T215" s="21"/>
-    </row>
-    <row r="216" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F216" s="17"/>
-      <c r="G216" s="17"/>
-      <c r="H216" s="17"/>
-      <c r="I216" s="17"/>
-      <c r="J216" s="18"/>
-      <c r="K216" s="18"/>
-      <c r="L216" s="18"/>
-      <c r="M216" s="18"/>
-      <c r="N216" s="18"/>
-      <c r="O216" s="18"/>
-      <c r="P216" s="18"/>
-      <c r="Q216" s="18"/>
-      <c r="R216" s="19"/>
-      <c r="S216" s="20"/>
-      <c r="T216" s="21"/>
-    </row>
-    <row r="217" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F217" s="17"/>
-      <c r="G217" s="17"/>
-      <c r="H217" s="17"/>
-      <c r="I217" s="17"/>
-      <c r="J217" s="18"/>
-      <c r="K217" s="18"/>
-      <c r="L217" s="18"/>
-      <c r="M217" s="18"/>
-      <c r="N217" s="18"/>
-      <c r="O217" s="18"/>
-      <c r="P217" s="18"/>
-      <c r="Q217" s="18"/>
-      <c r="R217" s="19"/>
-      <c r="S217" s="20"/>
-      <c r="T217" s="21"/>
-    </row>
-    <row r="218" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F218" s="17"/>
-      <c r="G218" s="17"/>
-      <c r="H218" s="17"/>
-      <c r="I218" s="17"/>
-      <c r="J218" s="18"/>
-      <c r="K218" s="18"/>
-      <c r="L218" s="18"/>
-      <c r="M218" s="18"/>
-      <c r="N218" s="18"/>
-      <c r="O218" s="18"/>
-      <c r="P218" s="18"/>
-      <c r="Q218" s="18"/>
-      <c r="R218" s="19"/>
-      <c r="S218" s="20"/>
-      <c r="T218" s="21"/>
-    </row>
-    <row r="219" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F219" s="17"/>
-      <c r="G219" s="17"/>
-      <c r="H219" s="17"/>
-      <c r="I219" s="17"/>
-      <c r="J219" s="18"/>
-      <c r="K219" s="18"/>
-      <c r="L219" s="18"/>
-      <c r="M219" s="18"/>
-      <c r="N219" s="18"/>
-      <c r="O219" s="18"/>
-      <c r="P219" s="18"/>
-      <c r="Q219" s="18"/>
-      <c r="R219" s="19"/>
-      <c r="S219" s="20"/>
-      <c r="T219" s="21"/>
-    </row>
-    <row r="220" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F220" s="17"/>
-      <c r="G220" s="17"/>
-      <c r="H220" s="17"/>
-      <c r="I220" s="17"/>
-      <c r="J220" s="18"/>
-      <c r="K220" s="18"/>
-      <c r="L220" s="18"/>
-      <c r="M220" s="18"/>
-      <c r="N220" s="18"/>
-      <c r="O220" s="18"/>
-      <c r="P220" s="18"/>
-      <c r="Q220" s="18"/>
-      <c r="R220" s="19"/>
-      <c r="S220" s="20"/>
-      <c r="T220" s="21"/>
-    </row>
-    <row r="221" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F221" s="17"/>
-      <c r="G221" s="17"/>
-      <c r="H221" s="17"/>
-      <c r="I221" s="17"/>
-      <c r="J221" s="18"/>
-      <c r="K221" s="18"/>
-      <c r="L221" s="18"/>
-      <c r="M221" s="18"/>
-      <c r="N221" s="18"/>
-      <c r="O221" s="18"/>
-      <c r="P221" s="18"/>
-      <c r="Q221" s="18"/>
-      <c r="R221" s="19"/>
-      <c r="S221" s="20"/>
-      <c r="T221" s="21"/>
-    </row>
-    <row r="222" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F222" s="17"/>
-      <c r="G222" s="17"/>
-      <c r="H222" s="17"/>
-      <c r="I222" s="17"/>
-      <c r="J222" s="18"/>
-      <c r="K222" s="18"/>
-      <c r="L222" s="18"/>
-      <c r="M222" s="18"/>
-      <c r="N222" s="18"/>
-      <c r="O222" s="18"/>
-      <c r="P222" s="18"/>
-      <c r="Q222" s="18"/>
-      <c r="R222" s="19"/>
-      <c r="S222" s="20"/>
-      <c r="T222" s="21"/>
-    </row>
-    <row r="223" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F223" s="17"/>
-      <c r="G223" s="17"/>
-      <c r="H223" s="17"/>
-      <c r="I223" s="17"/>
-      <c r="J223" s="18"/>
-      <c r="K223" s="18"/>
-      <c r="L223" s="18"/>
-      <c r="M223" s="18"/>
-      <c r="N223" s="18"/>
-      <c r="O223" s="18"/>
-      <c r="P223" s="18"/>
-      <c r="Q223" s="18"/>
-      <c r="R223" s="19"/>
-      <c r="S223" s="20"/>
-      <c r="T223" s="21"/>
-    </row>
-    <row r="224" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F224" s="17"/>
-      <c r="G224" s="17"/>
-      <c r="H224" s="17"/>
-      <c r="I224" s="17"/>
-      <c r="J224" s="18"/>
-      <c r="K224" s="18"/>
-      <c r="L224" s="18"/>
-      <c r="M224" s="18"/>
-      <c r="N224" s="18"/>
-      <c r="O224" s="18"/>
-      <c r="P224" s="18"/>
-      <c r="Q224" s="18"/>
-      <c r="R224" s="19"/>
-      <c r="S224" s="20"/>
-      <c r="T224" s="21"/>
-    </row>
-    <row r="225" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F225" s="17"/>
-      <c r="G225" s="17"/>
-      <c r="H225" s="17"/>
-      <c r="I225" s="17"/>
-      <c r="J225" s="18"/>
-      <c r="K225" s="18"/>
-      <c r="L225" s="18"/>
-      <c r="M225" s="18"/>
-      <c r="N225" s="18"/>
-      <c r="O225" s="18"/>
-      <c r="P225" s="18"/>
-      <c r="Q225" s="18"/>
-      <c r="R225" s="19"/>
-      <c r="S225" s="20"/>
-      <c r="T225" s="21"/>
-    </row>
-    <row r="226" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F226" s="17"/>
-      <c r="G226" s="17"/>
-      <c r="H226" s="17"/>
-      <c r="I226" s="17"/>
-      <c r="J226" s="18"/>
-      <c r="K226" s="18"/>
-      <c r="L226" s="18"/>
-      <c r="M226" s="18"/>
-      <c r="N226" s="18"/>
-      <c r="O226" s="18"/>
-      <c r="P226" s="18"/>
-      <c r="Q226" s="18"/>
-      <c r="R226" s="19"/>
-      <c r="S226" s="20"/>
-      <c r="T226" s="21"/>
-    </row>
-    <row r="227" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F227" s="17"/>
-      <c r="G227" s="17"/>
-      <c r="H227" s="17"/>
-      <c r="I227" s="17"/>
-      <c r="J227" s="18"/>
-      <c r="K227" s="18"/>
-      <c r="L227" s="18"/>
-      <c r="M227" s="18"/>
-      <c r="N227" s="18"/>
-      <c r="O227" s="18"/>
-      <c r="P227" s="18"/>
-      <c r="Q227" s="18"/>
-      <c r="R227" s="19"/>
-      <c r="S227" s="20"/>
-      <c r="T227" s="21"/>
-    </row>
-    <row r="228" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F228" s="17"/>
-      <c r="G228" s="17"/>
-      <c r="H228" s="17"/>
-      <c r="I228" s="17"/>
-      <c r="J228" s="18"/>
-      <c r="K228" s="18"/>
-      <c r="L228" s="18"/>
-      <c r="M228" s="18"/>
-      <c r="N228" s="18"/>
-      <c r="O228" s="18"/>
-      <c r="P228" s="18"/>
-      <c r="Q228" s="18"/>
-      <c r="R228" s="19"/>
-      <c r="S228" s="20"/>
-      <c r="T228" s="21"/>
-    </row>
-    <row r="229" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F229" s="17"/>
-      <c r="G229" s="17"/>
-      <c r="H229" s="17"/>
-      <c r="I229" s="17"/>
-      <c r="J229" s="18"/>
-      <c r="K229" s="18"/>
-      <c r="L229" s="18"/>
-      <c r="M229" s="18"/>
-      <c r="N229" s="18"/>
-      <c r="O229" s="18"/>
-      <c r="P229" s="18"/>
-      <c r="Q229" s="18"/>
-      <c r="R229" s="19"/>
-      <c r="S229" s="20"/>
-      <c r="T229" s="21"/>
-    </row>
-    <row r="230" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F230" s="17"/>
-      <c r="G230" s="17"/>
-      <c r="H230" s="17"/>
-      <c r="I230" s="17"/>
-      <c r="J230" s="18"/>
-      <c r="K230" s="18"/>
-      <c r="L230" s="18"/>
-      <c r="M230" s="18"/>
-      <c r="N230" s="18"/>
-      <c r="O230" s="18"/>
-      <c r="P230" s="18"/>
-      <c r="Q230" s="18"/>
-      <c r="R230" s="19"/>
-      <c r="S230" s="20"/>
-      <c r="T230" s="21"/>
-    </row>
-    <row r="231" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F231" s="17"/>
-      <c r="G231" s="17"/>
-      <c r="H231" s="17"/>
-      <c r="I231" s="17"/>
-      <c r="J231" s="18"/>
-      <c r="K231" s="18"/>
-      <c r="L231" s="18"/>
-      <c r="M231" s="18"/>
-      <c r="N231" s="18"/>
-      <c r="O231" s="18"/>
-      <c r="P231" s="18"/>
-      <c r="Q231" s="18"/>
-      <c r="R231" s="19"/>
-      <c r="S231" s="20"/>
-      <c r="T231" s="21"/>
-    </row>
-    <row r="232" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F232" s="17"/>
-      <c r="G232" s="17"/>
-      <c r="H232" s="17"/>
-      <c r="I232" s="17"/>
-      <c r="J232" s="18"/>
-      <c r="K232" s="18"/>
-      <c r="L232" s="18"/>
-      <c r="M232" s="18"/>
-      <c r="N232" s="18"/>
-      <c r="O232" s="18"/>
-      <c r="P232" s="18"/>
-      <c r="Q232" s="18"/>
-      <c r="R232" s="19"/>
-      <c r="S232" s="20"/>
-      <c r="T232" s="21"/>
-    </row>
-    <row r="233" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F233" s="17"/>
-      <c r="G233" s="17"/>
-      <c r="H233" s="17"/>
-      <c r="I233" s="17"/>
-      <c r="J233" s="18"/>
-      <c r="K233" s="18"/>
-      <c r="L233" s="18"/>
-      <c r="M233" s="18"/>
-      <c r="N233" s="18"/>
-      <c r="O233" s="18"/>
-      <c r="P233" s="18"/>
-      <c r="Q233" s="18"/>
-      <c r="R233" s="19"/>
-      <c r="S233" s="20"/>
-      <c r="T233" s="21"/>
-    </row>
-    <row r="234" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F234" s="17"/>
-      <c r="G234" s="17"/>
-      <c r="H234" s="17"/>
-      <c r="I234" s="17"/>
-      <c r="J234" s="18"/>
-      <c r="K234" s="18"/>
-      <c r="L234" s="18"/>
-      <c r="M234" s="18"/>
-      <c r="N234" s="18"/>
-      <c r="O234" s="18"/>
-      <c r="P234" s="18"/>
-      <c r="Q234" s="18"/>
-      <c r="R234" s="19"/>
-      <c r="S234" s="20"/>
-      <c r="T234" s="21"/>
-    </row>
-    <row r="235" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F235" s="17"/>
-      <c r="G235" s="17"/>
-      <c r="H235" s="17"/>
-      <c r="I235" s="17"/>
-      <c r="J235" s="18"/>
-      <c r="K235" s="18"/>
-      <c r="L235" s="18"/>
-      <c r="M235" s="18"/>
-      <c r="N235" s="18"/>
-      <c r="O235" s="18"/>
-      <c r="P235" s="18"/>
-      <c r="Q235" s="18"/>
-      <c r="R235" s="19"/>
-      <c r="S235" s="20"/>
-      <c r="T235" s="21"/>
-    </row>
-    <row r="236" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F236" s="17"/>
-      <c r="G236" s="17"/>
-      <c r="H236" s="17"/>
-      <c r="I236" s="17"/>
-      <c r="J236" s="18"/>
-      <c r="K236" s="18"/>
-      <c r="L236" s="18"/>
-      <c r="M236" s="18"/>
-      <c r="N236" s="18"/>
-      <c r="O236" s="18"/>
-      <c r="P236" s="18"/>
-      <c r="Q236" s="18"/>
-      <c r="R236" s="19"/>
-      <c r="S236" s="20"/>
-      <c r="T236" s="21"/>
-    </row>
-    <row r="237" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F237" s="17"/>
-      <c r="G237" s="17"/>
-      <c r="H237" s="17"/>
-      <c r="I237" s="17"/>
-      <c r="J237" s="18"/>
-      <c r="K237" s="18"/>
-      <c r="L237" s="18"/>
-      <c r="M237" s="18"/>
-      <c r="N237" s="18"/>
-      <c r="O237" s="18"/>
-      <c r="P237" s="18"/>
-      <c r="Q237" s="18"/>
-      <c r="R237" s="19"/>
-      <c r="S237" s="20"/>
-      <c r="T237" s="21"/>
-    </row>
-    <row r="238" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F238" s="17"/>
-      <c r="G238" s="17"/>
-      <c r="H238" s="17"/>
-      <c r="I238" s="17"/>
-      <c r="J238" s="18"/>
-      <c r="K238" s="18"/>
-      <c r="L238" s="18"/>
-      <c r="M238" s="18"/>
-      <c r="N238" s="18"/>
-      <c r="O238" s="18"/>
-      <c r="P238" s="18"/>
-      <c r="Q238" s="18"/>
-      <c r="R238" s="19"/>
-      <c r="S238" s="20"/>
-      <c r="T238" s="21"/>
-    </row>
-    <row r="239" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F239" s="17"/>
-      <c r="G239" s="17"/>
-      <c r="H239" s="17"/>
-      <c r="I239" s="17"/>
-      <c r="J239" s="18"/>
-      <c r="K239" s="18"/>
-      <c r="L239" s="18"/>
-      <c r="M239" s="18"/>
-      <c r="N239" s="18"/>
-      <c r="O239" s="18"/>
-      <c r="P239" s="18"/>
-      <c r="Q239" s="18"/>
-      <c r="R239" s="19"/>
-      <c r="S239" s="20"/>
-      <c r="T239" s="21"/>
-    </row>
-    <row r="240" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F240" s="17"/>
-      <c r="G240" s="17"/>
-      <c r="H240" s="17"/>
-      <c r="I240" s="17"/>
-      <c r="J240" s="18"/>
-      <c r="K240" s="18"/>
-      <c r="L240" s="18"/>
-      <c r="M240" s="18"/>
-      <c r="N240" s="18"/>
-      <c r="O240" s="18"/>
-      <c r="P240" s="18"/>
-      <c r="Q240" s="18"/>
-      <c r="R240" s="19"/>
-      <c r="S240" s="20"/>
-      <c r="T240" s="21"/>
-    </row>
-    <row r="241" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F241" s="17"/>
-      <c r="G241" s="17"/>
-      <c r="H241" s="17"/>
-      <c r="I241" s="17"/>
-      <c r="J241" s="18"/>
-      <c r="K241" s="18"/>
-      <c r="L241" s="18"/>
-      <c r="M241" s="18"/>
-      <c r="N241" s="18"/>
-      <c r="O241" s="18"/>
-      <c r="P241" s="18"/>
-      <c r="Q241" s="18"/>
-      <c r="R241" s="19"/>
-      <c r="S241" s="20"/>
-      <c r="T241" s="21"/>
-    </row>
-    <row r="242" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F242" s="17"/>
-      <c r="G242" s="17"/>
-      <c r="H242" s="17"/>
-      <c r="I242" s="17"/>
-      <c r="J242" s="18"/>
-      <c r="K242" s="18"/>
-      <c r="L242" s="18"/>
-      <c r="M242" s="18"/>
-      <c r="N242" s="18"/>
-      <c r="O242" s="18"/>
-      <c r="P242" s="18"/>
-      <c r="Q242" s="18"/>
-      <c r="R242" s="19"/>
-      <c r="S242" s="20"/>
-      <c r="T242" s="21"/>
-    </row>
-    <row r="243" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="17"/>
-      <c r="I243" s="17"/>
-      <c r="J243" s="18"/>
-      <c r="K243" s="18"/>
-      <c r="L243" s="18"/>
-      <c r="M243" s="18"/>
-      <c r="N243" s="18"/>
-      <c r="O243" s="18"/>
-      <c r="P243" s="18"/>
-      <c r="Q243" s="18"/>
-      <c r="R243" s="19"/>
-      <c r="S243" s="20"/>
-      <c r="T243" s="21"/>
-    </row>
-    <row r="244" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F244" s="17"/>
-      <c r="G244" s="17"/>
-      <c r="H244" s="17"/>
-      <c r="I244" s="17"/>
-      <c r="J244" s="18"/>
-      <c r="K244" s="18"/>
-      <c r="L244" s="18"/>
-      <c r="M244" s="18"/>
-      <c r="N244" s="18"/>
-      <c r="O244" s="18"/>
-      <c r="P244" s="18"/>
-      <c r="Q244" s="18"/>
-      <c r="R244" s="19"/>
-      <c r="S244" s="20"/>
-      <c r="T244" s="21"/>
-    </row>
-    <row r="245" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F245" s="17"/>
-      <c r="G245" s="17"/>
-      <c r="H245" s="17"/>
-      <c r="I245" s="17"/>
-      <c r="J245" s="18"/>
-      <c r="K245" s="18"/>
-      <c r="L245" s="18"/>
-      <c r="M245" s="18"/>
-      <c r="N245" s="18"/>
-      <c r="O245" s="18"/>
-      <c r="P245" s="18"/>
-      <c r="Q245" s="18"/>
-      <c r="R245" s="19"/>
-      <c r="S245" s="20"/>
-      <c r="T245" s="21"/>
-    </row>
-    <row r="246" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F246" s="17"/>
-      <c r="G246" s="17"/>
-      <c r="H246" s="17"/>
-      <c r="I246" s="17"/>
-      <c r="J246" s="18"/>
-      <c r="K246" s="18"/>
-      <c r="L246" s="18"/>
-      <c r="M246" s="18"/>
-      <c r="N246" s="18"/>
-      <c r="O246" s="18"/>
-      <c r="P246" s="18"/>
-      <c r="Q246" s="18"/>
-      <c r="R246" s="19"/>
-      <c r="S246" s="20"/>
-      <c r="T246" s="21"/>
-    </row>
-    <row r="247" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F247" s="17"/>
-      <c r="G247" s="17"/>
-      <c r="H247" s="17"/>
-      <c r="I247" s="17"/>
-      <c r="J247" s="18"/>
-      <c r="K247" s="18"/>
-      <c r="L247" s="18"/>
-      <c r="M247" s="18"/>
-      <c r="N247" s="18"/>
-      <c r="O247" s="18"/>
-      <c r="P247" s="18"/>
-      <c r="Q247" s="18"/>
-      <c r="R247" s="19"/>
-      <c r="S247" s="20"/>
-      <c r="T247" s="21"/>
-    </row>
-    <row r="248" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F248" s="17"/>
-      <c r="G248" s="17"/>
-      <c r="H248" s="17"/>
-      <c r="I248" s="17"/>
-      <c r="J248" s="18"/>
-      <c r="K248" s="18"/>
-      <c r="L248" s="18"/>
-      <c r="M248" s="18"/>
-      <c r="N248" s="18"/>
-      <c r="O248" s="18"/>
-      <c r="P248" s="18"/>
-      <c r="Q248" s="18"/>
-      <c r="R248" s="19"/>
-      <c r="S248" s="20"/>
-      <c r="T248" s="21"/>
-    </row>
-    <row r="249" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F249" s="17"/>
-      <c r="G249" s="17"/>
-      <c r="H249" s="17"/>
-      <c r="I249" s="17"/>
-      <c r="J249" s="18"/>
-      <c r="K249" s="18"/>
-      <c r="L249" s="18"/>
-      <c r="M249" s="18"/>
-      <c r="N249" s="18"/>
-      <c r="O249" s="18"/>
-      <c r="P249" s="18"/>
-      <c r="Q249" s="18"/>
-      <c r="R249" s="19"/>
-      <c r="S249" s="20"/>
-      <c r="T249" s="21"/>
-    </row>
-    <row r="250" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F250" s="17"/>
-      <c r="G250" s="17"/>
-      <c r="H250" s="17"/>
-      <c r="I250" s="17"/>
-      <c r="J250" s="18"/>
-      <c r="K250" s="18"/>
-      <c r="L250" s="18"/>
-      <c r="M250" s="18"/>
-      <c r="N250" s="18"/>
-      <c r="O250" s="18"/>
-      <c r="P250" s="18"/>
-      <c r="Q250" s="18"/>
-      <c r="R250" s="19"/>
-      <c r="S250" s="20"/>
-      <c r="T250" s="21"/>
-    </row>
-    <row r="251" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F251" s="17"/>
-      <c r="G251" s="17"/>
-      <c r="H251" s="17"/>
-      <c r="I251" s="17"/>
-      <c r="J251" s="18"/>
-      <c r="K251" s="18"/>
-      <c r="L251" s="18"/>
-      <c r="M251" s="18"/>
-      <c r="N251" s="18"/>
-      <c r="O251" s="18"/>
-      <c r="P251" s="18"/>
-      <c r="Q251" s="18"/>
-      <c r="R251" s="19"/>
-      <c r="S251" s="20"/>
-      <c r="T251" s="21"/>
-    </row>
-    <row r="252" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F252" s="17"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="17"/>
-      <c r="I252" s="17"/>
-      <c r="J252" s="18"/>
-      <c r="K252" s="18"/>
-      <c r="L252" s="18"/>
-      <c r="M252" s="18"/>
-      <c r="N252" s="18"/>
-      <c r="O252" s="18"/>
-      <c r="P252" s="18"/>
-      <c r="Q252" s="18"/>
-      <c r="R252" s="19"/>
-      <c r="S252" s="20"/>
-      <c r="T252" s="21"/>
-    </row>
-    <row r="253" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F253" s="17"/>
-      <c r="G253" s="17"/>
-      <c r="H253" s="17"/>
-      <c r="I253" s="17"/>
-      <c r="J253" s="18"/>
-      <c r="K253" s="18"/>
-      <c r="L253" s="18"/>
-      <c r="M253" s="18"/>
-      <c r="N253" s="18"/>
-      <c r="O253" s="18"/>
-      <c r="P253" s="18"/>
-      <c r="Q253" s="18"/>
-      <c r="R253" s="19"/>
-      <c r="S253" s="20"/>
-      <c r="T253" s="21"/>
-    </row>
-    <row r="254" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="T160" s="18"/>
+    </row>
+    <row r="161" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T161" s="18"/>
+    </row>
+    <row r="162" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T162" s="18"/>
+    </row>
+    <row r="163" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T163" s="18"/>
+    </row>
+    <row r="164" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T164" s="18"/>
+    </row>
+    <row r="165" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T165" s="18"/>
+    </row>
+    <row r="166" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T166" s="18"/>
+    </row>
+    <row r="167" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T167" s="18"/>
+    </row>
+    <row r="168" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T168" s="18"/>
+    </row>
+    <row r="169" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T169" s="18"/>
+    </row>
+    <row r="170" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T170" s="18"/>
+    </row>
+    <row r="171" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T171" s="18"/>
+    </row>
+    <row r="172" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T172" s="18"/>
+    </row>
+    <row r="173" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T173" s="18"/>
+    </row>
+    <row r="174" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T174" s="18"/>
+    </row>
+    <row r="175" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T175" s="18"/>
+    </row>
+    <row r="176" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T176" s="18"/>
+    </row>
+    <row r="177" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T177" s="18"/>
+    </row>
+    <row r="178" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T178" s="18"/>
+    </row>
+    <row r="179" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T179" s="18"/>
+    </row>
+    <row r="180" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T180" s="18"/>
+    </row>
+    <row r="181" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T181" s="18"/>
+    </row>
+    <row r="182" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T182" s="18"/>
+    </row>
+    <row r="183" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T183" s="18"/>
+    </row>
+    <row r="184" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T184" s="18"/>
+    </row>
+    <row r="185" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T185" s="18"/>
+    </row>
+    <row r="186" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T186" s="18"/>
+    </row>
+    <row r="187" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T187" s="18"/>
+    </row>
+    <row r="188" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T188" s="18"/>
+    </row>
+    <row r="189" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T189" s="18"/>
+    </row>
+    <row r="190" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T190" s="18"/>
+    </row>
+    <row r="191" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T191" s="18"/>
+    </row>
+    <row r="192" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T192" s="18"/>
+    </row>
+    <row r="193" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T193" s="18"/>
+    </row>
+    <row r="194" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T194" s="18"/>
+    </row>
+    <row r="195" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T195" s="18"/>
+    </row>
+    <row r="196" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T196" s="18"/>
+    </row>
+    <row r="197" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T197" s="18"/>
+    </row>
+    <row r="198" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T198" s="18"/>
+    </row>
+    <row r="199" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T199" s="18"/>
+    </row>
+    <row r="200" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T200" s="18"/>
+    </row>
+    <row r="201" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T201" s="18"/>
+    </row>
+    <row r="202" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T202" s="18"/>
+    </row>
+    <row r="203" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T203" s="18"/>
+    </row>
+    <row r="204" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T204" s="18"/>
+    </row>
+    <row r="205" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T205" s="18"/>
+    </row>
+    <row r="206" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T206" s="18"/>
+    </row>
+    <row r="207" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T207" s="18"/>
+    </row>
+    <row r="208" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T208" s="18"/>
+    </row>
+    <row r="209" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T209" s="18"/>
+    </row>
+    <row r="210" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T210" s="18"/>
+    </row>
+    <row r="211" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T211" s="18"/>
+    </row>
+    <row r="212" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T212" s="18"/>
+    </row>
+    <row r="213" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T213" s="18"/>
+    </row>
+    <row r="214" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T214" s="18"/>
+    </row>
+    <row r="215" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T215" s="18"/>
+    </row>
+    <row r="216" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T216" s="18"/>
+    </row>
+    <row r="217" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T217" s="18"/>
+    </row>
+    <row r="218" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T218" s="18"/>
+    </row>
+    <row r="219" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T219" s="18"/>
+    </row>
+    <row r="220" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T220" s="18"/>
+    </row>
+    <row r="221" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T221" s="18"/>
+    </row>
+    <row r="222" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T222" s="18"/>
+    </row>
+    <row r="223" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T223" s="18"/>
+    </row>
+    <row r="224" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T224" s="18"/>
+    </row>
+    <row r="225" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T225" s="18"/>
+    </row>
+    <row r="226" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T226" s="18"/>
+    </row>
+    <row r="227" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T227" s="18"/>
+    </row>
+    <row r="228" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T228" s="18"/>
+    </row>
+    <row r="229" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T229" s="18"/>
+    </row>
+    <row r="230" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T230" s="18"/>
+    </row>
+    <row r="231" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T231" s="18"/>
+    </row>
+    <row r="232" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T232" s="18"/>
+    </row>
+    <row r="233" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T233" s="18"/>
+    </row>
+    <row r="234" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T234" s="18"/>
+    </row>
+    <row r="235" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T235" s="18"/>
+    </row>
+    <row r="236" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T236" s="18"/>
+    </row>
+    <row r="237" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T237" s="18"/>
+    </row>
+    <row r="238" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T238" s="18"/>
+    </row>
+    <row r="239" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T239" s="18"/>
+    </row>
+    <row r="240" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T240" s="18"/>
+    </row>
+    <row r="241" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T241" s="18"/>
+    </row>
+    <row r="242" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T242" s="18"/>
+    </row>
+    <row r="243" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T243" s="18"/>
+    </row>
+    <row r="244" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T244" s="18"/>
+    </row>
+    <row r="245" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T245" s="18"/>
+    </row>
+    <row r="246" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T246" s="18"/>
+    </row>
+    <row r="247" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T247" s="18"/>
+    </row>
+    <row r="248" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T248" s="18"/>
+    </row>
+    <row r="249" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T249" s="18"/>
+    </row>
+    <row r="250" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T250" s="18"/>
+    </row>
+    <row r="251" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T251" s="18"/>
+    </row>
+    <row r="252" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T252" s="18"/>
+    </row>
+    <row r="253" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T253" s="18"/>
+    </row>
+    <row r="254" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T254" s="18"/>
     </row>
-    <row r="255" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="255" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T255" s="18"/>
     </row>
-    <row r="256" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="256" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T256" s="18"/>
     </row>
     <row r="257" spans="20:20" x14ac:dyDescent="0.2">
@@ -9832,323 +7260,8 @@
     <row r="565" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T565" s="18"/>
     </row>
-    <row r="566" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T566" s="18"/>
-    </row>
-    <row r="567" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T567" s="18"/>
-    </row>
-    <row r="568" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T568" s="18"/>
-    </row>
-    <row r="569" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T569" s="18"/>
-    </row>
-    <row r="570" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T570" s="18"/>
-    </row>
-    <row r="571" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T571" s="18"/>
-    </row>
-    <row r="572" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T572" s="18"/>
-    </row>
-    <row r="573" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T573" s="18"/>
-    </row>
-    <row r="574" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T574" s="18"/>
-    </row>
-    <row r="575" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T575" s="18"/>
-    </row>
-    <row r="576" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T576" s="18"/>
-    </row>
-    <row r="577" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T577" s="18"/>
-    </row>
-    <row r="578" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T578" s="18"/>
-    </row>
-    <row r="579" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T579" s="18"/>
-    </row>
-    <row r="580" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T580" s="18"/>
-    </row>
-    <row r="581" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T581" s="18"/>
-    </row>
-    <row r="582" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T582" s="18"/>
-    </row>
-    <row r="583" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T583" s="18"/>
-    </row>
-    <row r="584" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T584" s="18"/>
-    </row>
-    <row r="585" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T585" s="18"/>
-    </row>
-    <row r="586" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T586" s="18"/>
-    </row>
-    <row r="587" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T587" s="18"/>
-    </row>
-    <row r="588" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T588" s="18"/>
-    </row>
-    <row r="589" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T589" s="18"/>
-    </row>
-    <row r="590" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T590" s="18"/>
-    </row>
-    <row r="591" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T591" s="18"/>
-    </row>
-    <row r="592" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T592" s="18"/>
-    </row>
-    <row r="593" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T593" s="18"/>
-    </row>
-    <row r="594" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T594" s="18"/>
-    </row>
-    <row r="595" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T595" s="18"/>
-    </row>
-    <row r="596" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T596" s="18"/>
-    </row>
-    <row r="597" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T597" s="18"/>
-    </row>
-    <row r="598" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T598" s="18"/>
-    </row>
-    <row r="599" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T599" s="18"/>
-    </row>
-    <row r="600" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T600" s="18"/>
-    </row>
-    <row r="601" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T601" s="18"/>
-    </row>
-    <row r="602" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T602" s="18"/>
-    </row>
-    <row r="603" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T603" s="18"/>
-    </row>
-    <row r="604" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T604" s="18"/>
-    </row>
-    <row r="605" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T605" s="18"/>
-    </row>
-    <row r="606" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T606" s="18"/>
-    </row>
-    <row r="607" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T607" s="18"/>
-    </row>
-    <row r="608" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T608" s="18"/>
-    </row>
-    <row r="609" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T609" s="18"/>
-    </row>
-    <row r="610" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T610" s="18"/>
-    </row>
-    <row r="611" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T611" s="18"/>
-    </row>
-    <row r="612" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T612" s="18"/>
-    </row>
-    <row r="613" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T613" s="18"/>
-    </row>
-    <row r="614" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T614" s="18"/>
-    </row>
-    <row r="615" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T615" s="18"/>
-    </row>
-    <row r="616" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T616" s="18"/>
-    </row>
-    <row r="617" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T617" s="18"/>
-    </row>
-    <row r="618" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T618" s="18"/>
-    </row>
-    <row r="619" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T619" s="18"/>
-    </row>
-    <row r="620" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T620" s="18"/>
-    </row>
-    <row r="621" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T621" s="18"/>
-    </row>
-    <row r="622" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T622" s="18"/>
-    </row>
-    <row r="623" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T623" s="18"/>
-    </row>
-    <row r="624" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T624" s="18"/>
-    </row>
-    <row r="625" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T625" s="18"/>
-    </row>
-    <row r="626" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T626" s="18"/>
-    </row>
-    <row r="627" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T627" s="18"/>
-    </row>
-    <row r="628" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T628" s="18"/>
-    </row>
-    <row r="629" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T629" s="18"/>
-    </row>
-    <row r="630" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T630" s="18"/>
-    </row>
-    <row r="631" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T631" s="18"/>
-    </row>
-    <row r="632" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T632" s="18"/>
-    </row>
-    <row r="633" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T633" s="18"/>
-    </row>
-    <row r="634" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T634" s="18"/>
-    </row>
-    <row r="635" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T635" s="18"/>
-    </row>
-    <row r="636" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T636" s="18"/>
-    </row>
-    <row r="637" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T637" s="18"/>
-    </row>
-    <row r="638" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T638" s="18"/>
-    </row>
-    <row r="639" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T639" s="18"/>
-    </row>
-    <row r="640" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T640" s="18"/>
-    </row>
-    <row r="641" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T641" s="18"/>
-    </row>
-    <row r="642" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T642" s="18"/>
-    </row>
-    <row r="643" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T643" s="18"/>
-    </row>
-    <row r="644" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T644" s="18"/>
-    </row>
-    <row r="645" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T645" s="18"/>
-    </row>
-    <row r="646" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T646" s="18"/>
-    </row>
-    <row r="647" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T647" s="18"/>
-    </row>
-    <row r="648" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T648" s="18"/>
-    </row>
-    <row r="649" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T649" s="18"/>
-    </row>
-    <row r="650" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T650" s="18"/>
-    </row>
-    <row r="651" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T651" s="18"/>
-    </row>
-    <row r="652" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T652" s="18"/>
-    </row>
-    <row r="653" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T653" s="18"/>
-    </row>
-    <row r="654" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T654" s="18"/>
-    </row>
-    <row r="655" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T655" s="18"/>
-    </row>
-    <row r="656" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T656" s="18"/>
-    </row>
-    <row r="657" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T657" s="18"/>
-    </row>
-    <row r="658" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T658" s="18"/>
-    </row>
-    <row r="659" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T659" s="18"/>
-    </row>
-    <row r="660" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T660" s="18"/>
-    </row>
-    <row r="661" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T661" s="18"/>
-    </row>
-    <row r="662" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T662" s="18"/>
-    </row>
-    <row r="663" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T663" s="18"/>
-    </row>
-    <row r="664" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T664" s="18"/>
-    </row>
-    <row r="665" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T665" s="18"/>
-    </row>
-    <row r="666" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T666" s="18"/>
-    </row>
-    <row r="667" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T667" s="18"/>
-    </row>
-    <row r="668" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T668" s="18"/>
-    </row>
-    <row r="669" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T669" s="18"/>
-    </row>
-    <row r="670" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T670" s="18"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A9:T53" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A9:T12" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -10168,13 +7281,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O10:O53 L10:M53 J10:J53</xm:sqref>
+          <xm:sqref>O10:O12 L10:M12 J10:J12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q10:Q53</xm:sqref>
+          <xm:sqref>Q10:Q12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10208,10 +7321,10 @@
         <v>25</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10219,27 +7332,27 @@
         <v>46</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11221,18 +8334,18 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/GIV/23.0.0/accreditamento-checklist.xlsx
+++ b/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/GIV/23.0.0/accreditamento-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuseppe.DELTADOMAIN\Desktop\FSE_2.0\PDF_TEST\CERT_VAC\Postman\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuseppe.DELTADOMAIN\Desktop\FSE_2.0\PDF_TEST\CERT_VAC\Postman\19_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC5E33EC-388C-4E97-BEE6-E093EA059C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5778ADA-478A-4BDB-9890-AFA586E87049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="1350" windowWidth="19410" windowHeight="14250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -660,12 +660,6 @@
     <t>subject_application_id:GIV</t>
   </si>
   <si>
-    <t>subject_application_version:23.0.0</t>
-  </si>
-  <si>
-    <t>subject_application_vendor:DELTA INFORMATICA</t>
-  </si>
-  <si>
     <t>2023-12-11T13:13:40Z</t>
   </si>
   <si>
@@ -675,9 +669,6 @@
     <t>2023-12-11T13:16:30Z</t>
   </si>
   <si>
-    <t>2023-12-11T13:29:03Z</t>
-  </si>
-  <si>
     <t>2023-12-11T13:35:33Z</t>
   </si>
   <si>
@@ -687,9 +678,6 @@
     <t>2023-12-11T13:38:55Z</t>
   </si>
   <si>
-    <t>2023-12-11T13:41:22Z</t>
-  </si>
-  <si>
     <t>2023-12-11T14:02:12Z</t>
   </si>
   <si>
@@ -759,12 +747,6 @@
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.3a25cc0c4e45d40ed432112dba57967d12f7d4dc208676dd822e04307e07a8ac.3577c93cf7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>1ef3b2c360011c30</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.c2fb798a12bfa1f155bb608a3c33b6c510b55d1a1a74c881423c61c1eace024f.7107600485^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>4264c8b50c8300e6</t>
   </si>
   <si>
@@ -781,12 +763,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.c2fb798a12bfa1f155bb608a3c33b6c510b55d1a1a74c881423c61c1eace024f.f95547fd2d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>199885047b6abb27</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.3a25cc0c4e45d40ed432112dba57967d12f7d4dc208676dd822e04307e07a8ac.845d5f17b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>2e266700e0de5f48</t>
@@ -1017,6 +993,30 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
     </r>
+  </si>
+  <si>
+    <t>subject_application_version:23</t>
+  </si>
+  <si>
+    <t>subject_application_vendor:Delta Informatica</t>
+  </si>
+  <si>
+    <t>2023-12-16T08:27:23Z</t>
+  </si>
+  <si>
+    <t>b43013c27c4a386d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.c2fb798a12bfa1f155bb608a3c33b6c510b55d1a1a74c881423c61c1eace024f.6becc4c626^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-12-16T08:10:40Z</t>
+  </si>
+  <si>
+    <t>6457d251427e16cd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.3a25cc0c4e45d40ed432112dba57967d12f7d4dc208676dd822e04307e07a8ac.9b9987b488^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1421,28 +1421,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1476,8 +1454,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3940,10 +3940,10 @@
   <dimension ref="A1:T670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3990,12 +3990,12 @@
       <c r="T1" s="23"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="39"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -4013,14 +4013,14 @@
       <c r="T2" s="23"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="39"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -4038,12 +4038,12 @@
       <c r="T3" s="23"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="25"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="39"/>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -4062,12 +4062,12 @@
       <c r="T4" s="23"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="25"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="39"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -4085,9 +4085,9 @@
       <c r="T5" s="23"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="24"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -4105,9 +4105,9 @@
       <c r="T6" s="23"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -4142,94 +4142,94 @@
       <c r="T8" s="23"/>
     </row>
     <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="R9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="38" t="s">
+      <c r="S9" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="38" t="s">
+      <c r="T9" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
+      <c r="A10" s="35">
         <v>16</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="30">
         <v>45271</v>
       </c>
-      <c r="G10" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>172</v>
+      <c r="G10" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>70</v>
@@ -4241,39 +4241,39 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="46" t="s">
+      <c r="R10" s="32"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
+      <c r="A11" s="35">
         <v>17</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="30">
         <v>45271</v>
       </c>
-      <c r="G11" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>174</v>
+      <c r="G11" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>70</v>
@@ -4285,39 +4285,39 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="46" t="s">
+      <c r="R11" s="32"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="47">
+    <row r="12" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35">
         <v>18</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="30">
         <v>45271</v>
       </c>
-      <c r="G12" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>176</v>
+      <c r="G12" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>70</v>
@@ -4329,39 +4329,39 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="46" t="s">
+      <c r="R12" s="32"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="47">
+    <row r="13" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35">
         <v>19</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="42">
-        <v>45271</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>178</v>
+      <c r="F13" s="30">
+        <v>45276</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>231</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>70</v>
@@ -4373,39 +4373,39 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="46" t="s">
+      <c r="R13" s="32"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="47">
+    <row r="14" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35">
         <v>20</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="30">
         <v>45271</v>
       </c>
-      <c r="G14" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>180</v>
+      <c r="G14" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>70</v>
@@ -4417,39 +4417,39 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="46" t="s">
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="47">
+      <c r="A15" s="35">
         <v>21</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="30">
         <v>45271</v>
       </c>
-      <c r="G15" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>182</v>
+      <c r="G15" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>176</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>70</v>
@@ -4461,39 +4461,39 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="46" t="s">
+      <c r="R15" s="32"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="47">
+    <row r="16" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35">
         <v>22</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="30">
         <v>45271</v>
       </c>
-      <c r="G16" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>184</v>
+      <c r="G16" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>178</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>70</v>
@@ -4505,39 +4505,39 @@
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="46" t="s">
+      <c r="R16" s="32"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="47">
+    <row r="17" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35">
         <v>23</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="42">
-        <v>45271</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>186</v>
+      <c r="F17" s="30">
+        <v>45276</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>234</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>70</v>
@@ -4549,39 +4549,39 @@
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="46" t="s">
+      <c r="R17" s="32"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" s="47">
+    <row r="18" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35">
         <v>33</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="F18" s="42">
+      <c r="E18" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F18" s="30">
         <v>45271</v>
       </c>
-      <c r="G18" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>188</v>
+      <c r="G18" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>70</v>
@@ -4594,48 +4594,48 @@
         <v>70</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O18" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q18" s="15"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="46" t="s">
+      <c r="R18" s="32"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="A19" s="47">
+      <c r="A19" s="35">
         <v>34</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="F19" s="42">
+      <c r="E19" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="30">
         <v>45271</v>
       </c>
-      <c r="G19" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>188</v>
+      <c r="G19" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>70</v>
@@ -4648,48 +4648,48 @@
         <v>70</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O19" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="15"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="46" t="s">
+      <c r="R19" s="32"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="47">
+      <c r="A20" s="35">
         <v>41</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="F20" s="42">
+      <c r="E20" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="30">
         <v>45271</v>
       </c>
-      <c r="G20" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>188</v>
+      <c r="G20" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>70</v>
@@ -4702,48 +4702,48 @@
         <v>70</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O20" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="15"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="46" t="s">
+      <c r="R20" s="32"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="165" x14ac:dyDescent="0.25">
-      <c r="A21" s="47">
+      <c r="A21" s="35">
         <v>42</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="F21" s="42">
+      <c r="E21" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="30">
         <v>45271</v>
       </c>
-      <c r="G21" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>188</v>
+      <c r="G21" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>70</v>
@@ -4756,41 +4756,41 @@
         <v>70</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O21" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q21" s="15"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="46" t="s">
+      <c r="R21" s="32"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="165" x14ac:dyDescent="0.25">
-      <c r="A22" s="47">
+      <c r="A22" s="35">
         <v>49</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
@@ -4798,37 +4798,37 @@
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="15"/>
-      <c r="R22" s="44" t="s">
+      <c r="R22" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="S22" s="45"/>
-      <c r="T22" s="46" t="s">
+      <c r="S22" s="33"/>
+      <c r="T22" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47">
+      <c r="A23" s="35">
         <v>50</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -4836,44 +4836,44 @@
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q23" s="15"/>
-      <c r="R23" s="44" t="s">
+      <c r="R23" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="S23" s="45"/>
-      <c r="T23" s="46" t="s">
+      <c r="S23" s="33"/>
+      <c r="T23" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47">
+      <c r="A24" s="35">
         <v>94</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="30">
         <v>45271</v>
       </c>
-      <c r="G24" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>193</v>
+      <c r="G24" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>185</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>70</v>
@@ -4886,48 +4886,48 @@
         <v>70</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O24" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q24" s="15"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="46" t="s">
+      <c r="R24" s="32"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="47">
+      <c r="A25" s="35">
         <v>95</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="30">
         <v>45271</v>
       </c>
-      <c r="G25" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="I25" s="43" t="s">
-        <v>195</v>
+      <c r="G25" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>187</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>70</v>
@@ -4940,46 +4940,46 @@
         <v>70</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q25" s="15"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="46" t="s">
+      <c r="R25" s="32"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="47">
+      <c r="A26" s="35">
         <v>96</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
@@ -4987,37 +4987,37 @@
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="46" t="s">
+      <c r="R26" s="32"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="47">
+      <c r="A27" s="35">
         <v>97</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
@@ -5025,37 +5025,37 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="46" t="s">
+      <c r="R27" s="32"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="47">
+      <c r="A28" s="35">
         <v>98</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
       <c r="J28" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
@@ -5063,37 +5063,37 @@
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="46" t="s">
+      <c r="R28" s="32"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="47">
+      <c r="A29" s="35">
         <v>99</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
@@ -5101,37 +5101,37 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="46" t="s">
+      <c r="R29" s="32"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="47">
+      <c r="A30" s="35">
         <v>100</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
       <c r="J30" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
@@ -5139,37 +5139,37 @@
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="46" t="s">
+      <c r="R30" s="32"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="47">
+      <c r="A31" s="35">
         <v>101</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
@@ -5177,39 +5177,39 @@
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="46" t="s">
+      <c r="R31" s="32"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" s="47">
+      <c r="A32" s="35">
         <v>102</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="30">
         <v>45271</v>
       </c>
-      <c r="G32" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="I32" s="43" t="s">
-        <v>197</v>
+      <c r="G32" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>189</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>70</v>
@@ -5222,48 +5222,48 @@
         <v>70</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O32" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="15"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="46" t="s">
+      <c r="R32" s="32"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="47">
+      <c r="A33" s="35">
         <v>103</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="30">
         <v>45271</v>
       </c>
-      <c r="G33" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="H33" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="I33" s="43" t="s">
-        <v>199</v>
+      <c r="G33" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>191</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>70</v>
@@ -5276,48 +5276,48 @@
         <v>70</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O33" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q33" s="15"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="46" t="s">
+      <c r="R33" s="32"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="47">
+      <c r="A34" s="35">
         <v>104</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="30">
         <v>45271</v>
       </c>
-      <c r="G34" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="I34" s="43" t="s">
-        <v>201</v>
+      <c r="G34" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="J34" s="15" t="s">
         <v>70</v>
@@ -5330,46 +5330,46 @@
         <v>70</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O34" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q34" s="15"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="46" t="s">
+      <c r="R34" s="32"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A35" s="47">
+      <c r="A35" s="35">
         <v>105</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
@@ -5377,37 +5377,37 @@
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="46" t="s">
+      <c r="R35" s="32"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A36" s="47">
+      <c r="A36" s="35">
         <v>106</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
@@ -5415,39 +5415,39 @@
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="46" t="s">
+      <c r="R36" s="32"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="47">
+      <c r="A37" s="35">
         <v>107</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="30">
         <v>45271</v>
       </c>
-      <c r="G37" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="I37" s="43" t="s">
-        <v>203</v>
+      <c r="G37" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>195</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>70</v>
@@ -5460,48 +5460,48 @@
         <v>70</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O37" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P37" s="15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q37" s="15"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="46" t="s">
+      <c r="R37" s="32"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A38" s="47">
+      <c r="A38" s="35">
         <v>108</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="30">
         <v>45271</v>
       </c>
-      <c r="G38" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="I38" s="43" t="s">
-        <v>205</v>
+      <c r="G38" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>197</v>
       </c>
       <c r="J38" s="15" t="s">
         <v>70</v>
@@ -5514,46 +5514,46 @@
         <v>70</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O38" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q38" s="15"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="46" t="s">
+      <c r="R38" s="32"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="47">
+      <c r="A39" s="35">
         <v>109</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
       <c r="J39" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
@@ -5561,37 +5561,37 @@
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="46" t="s">
+      <c r="R39" s="32"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="47">
+      <c r="A40" s="35">
         <v>110</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
       <c r="J40" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
@@ -5599,37 +5599,37 @@
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="46" t="s">
+      <c r="R40" s="32"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A41" s="47">
+      <c r="A41" s="35">
         <v>111</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="16" t="s">
         <v>142</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
@@ -5637,37 +5637,37 @@
       <c r="O41" s="15"/>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="46" t="s">
+      <c r="R41" s="32"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="47">
+      <c r="A42" s="35">
         <v>112</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
@@ -5675,37 +5675,37 @@
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="46" t="s">
+      <c r="R42" s="32"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A43" s="47">
+      <c r="A43" s="35">
         <v>113</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
@@ -5713,39 +5713,39 @@
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="46" t="s">
+      <c r="R43" s="32"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A44" s="47">
+      <c r="A44" s="35">
         <v>114</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="30">
         <v>45271</v>
       </c>
-      <c r="G44" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="H44" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="I44" s="43" t="s">
-        <v>207</v>
+      <c r="G44" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>199</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>70</v>
@@ -5758,46 +5758,46 @@
         <v>70</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O44" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q44" s="15"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="46" t="s">
+      <c r="R44" s="32"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="47">
+      <c r="A45" s="35">
         <v>115</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
@@ -5805,39 +5805,39 @@
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="46" t="s">
+      <c r="R45" s="32"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A46" s="47">
+      <c r="A46" s="35">
         <v>116</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="30">
         <v>45271</v>
       </c>
-      <c r="G46" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="H46" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="I46" s="43" t="s">
-        <v>211</v>
+      <c r="G46" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>203</v>
       </c>
       <c r="J46" s="15" t="s">
         <v>70</v>
@@ -5850,48 +5850,48 @@
         <v>70</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O46" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q46" s="15"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="46" t="s">
+      <c r="R46" s="32"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47" s="47">
+      <c r="A47" s="35">
         <v>117</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="30">
         <v>45271</v>
       </c>
-      <c r="G47" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="H47" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="I47" s="43" t="s">
-        <v>212</v>
+      <c r="G47" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>204</v>
       </c>
       <c r="J47" s="15" t="s">
         <v>70</v>
@@ -5904,48 +5904,48 @@
         <v>70</v>
       </c>
       <c r="N47" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O47" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P47" s="15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q47" s="15"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="46" t="s">
+      <c r="R47" s="32"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A48" s="47">
+      <c r="A48" s="35">
         <v>118</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F48" s="30">
         <v>45271</v>
       </c>
-      <c r="G48" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="H48" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="I48" s="43" t="s">
-        <v>213</v>
+      <c r="G48" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I48" s="31" t="s">
+        <v>205</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>70</v>
@@ -5958,46 +5958,46 @@
         <v>70</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O48" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P48" s="15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q48" s="15"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="46" t="s">
+      <c r="R48" s="32"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A49" s="47">
+      <c r="A49" s="35">
         <v>119</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="42"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
       <c r="J49" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
@@ -6005,39 +6005,39 @@
       <c r="O49" s="15"/>
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="46" t="s">
+      <c r="R49" s="32"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A50" s="47">
+      <c r="A50" s="35">
         <v>120</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50" s="30">
         <v>45271</v>
       </c>
-      <c r="G50" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="H50" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="I50" s="43" t="s">
-        <v>215</v>
+      <c r="G50" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>207</v>
       </c>
       <c r="J50" s="15" t="s">
         <v>70</v>
@@ -6050,46 +6050,46 @@
         <v>70</v>
       </c>
       <c r="N50" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O50" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q50" s="15"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="46" t="s">
+      <c r="R50" s="32"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A51" s="47">
+      <c r="A51" s="35">
         <v>121</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="F51" s="42"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
       <c r="J51" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
@@ -6097,39 +6097,39 @@
       <c r="O51" s="15"/>
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="46" t="s">
+      <c r="R51" s="32"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47">
+      <c r="A52" s="35">
         <v>371</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E52" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="42">
+      <c r="F52" s="30">
         <v>45271</v>
       </c>
-      <c r="G52" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="H52" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="I52" s="43" t="s">
-        <v>218</v>
+      <c r="G52" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="I52" s="31" t="s">
+        <v>210</v>
       </c>
       <c r="J52" s="15" t="s">
         <v>70</v>
@@ -6141,39 +6141,39 @@
       <c r="O52" s="15"/>
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="46" t="s">
+      <c r="R52" s="32"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="A53" s="47">
+      <c r="A53" s="35">
         <v>372</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F53" s="42">
+      <c r="F53" s="30">
         <v>45271</v>
       </c>
-      <c r="G53" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="H53" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="I53" s="43" t="s">
-        <v>219</v>
+      <c r="G53" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>211</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>70</v>
@@ -6185,9 +6185,9 @@
       <c r="O53" s="15"/>
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="46" t="s">
+      <c r="R53" s="32"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="34" t="s">
         <v>45</v>
       </c>
     </row>
